--- a/Statistics.xlsx
+++ b/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\iart-proj1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{821B6F12-5DC9-406F-B509-0263EAD283AF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0023F90-61A2-47E4-9145-44B28BF4B5BF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -427,15 +427,15 @@
   <dimension ref="A1:L120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+      <selection activeCell="F102" sqref="F102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="38.28515625" style="1" customWidth="1"/>
-    <col min="3" max="5" width="15.7109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="15.7109375" style="1"/>
+    <col min="3" max="7" width="15.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="15.7109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="2" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -583,34 +583,34 @@
         <v>4</v>
       </c>
       <c r="C5">
-        <v>9.9897384643554688E-4</v>
+        <v>1.9958019256591801E-3</v>
       </c>
       <c r="D5">
-        <v>1.999139785766602E-3</v>
+        <v>1.000642776489258E-3</v>
       </c>
       <c r="E5">
-        <v>2.9995441436767578E-3</v>
+        <v>9.9968910217285156E-4</v>
       </c>
       <c r="F5">
-        <v>2.9988288879394531E-3</v>
+        <v>8.4972381591796875E-4</v>
       </c>
       <c r="G5">
-        <v>1.9996166229248051E-3</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>1.9984245300292969E-3</v>
+        <v>2.9807090759277339E-3</v>
       </c>
       <c r="I5">
-        <v>1.9996166229248051E-3</v>
+        <v>1.9993782043457031E-3</v>
       </c>
       <c r="J5">
-        <v>3.9920806884765616E-3</v>
+        <v>9.9968910217285156E-4</v>
       </c>
       <c r="K5">
-        <v>4.9984455108642578E-3</v>
+        <v>2.0160675048828121E-3</v>
       </c>
       <c r="L5">
-        <v>3.9989948272705078E-3</v>
+        <v>9.9945068359375E-4</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -618,34 +618,34 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>9.9992752075195313E-4</v>
+        <v>0</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>1.000404357910156E-3</v>
       </c>
       <c r="E6">
-        <v>2.99835205078125E-3</v>
+        <v>1.999139785766602E-3</v>
       </c>
       <c r="F6">
-        <v>0</v>
+        <v>9.9945068359375E-4</v>
       </c>
       <c r="G6">
-        <v>2.99835205078125E-3</v>
+        <v>1.998662948608398E-3</v>
       </c>
       <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>9.9921226501464844E-4</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>1.9993782043457031E-3</v>
-      </c>
-      <c r="I6">
-        <v>9.9945068359375E-4</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -657,34 +657,34 @@
         <v>1</v>
       </c>
       <c r="C8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K8">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L8">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -762,34 +762,34 @@
         <v>4</v>
       </c>
       <c r="C11">
-        <v>2.0051717758178711E-2</v>
+        <v>3.9987564086914063E-3</v>
       </c>
       <c r="D11">
-        <v>1.499271392822266E-2</v>
+        <v>7.0176124572753906E-3</v>
       </c>
       <c r="E11">
-        <v>1.199650764465332E-2</v>
+        <v>6.9985389709472656E-3</v>
       </c>
       <c r="F11">
-        <v>1.101255416870117E-2</v>
+        <v>6.9971084594726563E-3</v>
       </c>
       <c r="G11">
-        <v>3.0007123947143551E-2</v>
+        <v>8.0199241638183594E-3</v>
       </c>
       <c r="H11">
-        <v>1.5979766845703122E-2</v>
+        <v>9.9899768829345703E-3</v>
       </c>
       <c r="I11">
-        <v>1.50144100189209E-2</v>
+        <v>6.9990158081054688E-3</v>
       </c>
       <c r="J11">
-        <v>1.6995668411254879E-2</v>
+        <v>7.9975128173828125E-3</v>
       </c>
       <c r="K11">
-        <v>1.300525665283203E-2</v>
+        <v>3.9935111999511719E-3</v>
       </c>
       <c r="L11">
-        <v>1.698613166809082E-2</v>
+        <v>5.9950351715087891E-3</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -797,34 +797,34 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>5.0008296966552726E-3</v>
+        <v>4.9986839294433594E-3</v>
       </c>
       <c r="D12">
-        <v>2.0008087158203121E-3</v>
+        <v>2.0167827606201172E-3</v>
       </c>
       <c r="E12">
-        <v>5.9978961944580078E-3</v>
+        <v>1.0001659393310549E-3</v>
       </c>
       <c r="F12">
-        <v>3.9954185485839844E-3</v>
+        <v>4.9986839294433594E-3</v>
       </c>
       <c r="G12">
-        <v>2.9995441436767578E-3</v>
+        <v>1.9812583923339839E-3</v>
       </c>
       <c r="H12">
-        <v>1.017332077026367E-3</v>
+        <v>9.9921226501464844E-4</v>
       </c>
       <c r="I12">
-        <v>2.9988288879394531E-3</v>
+        <v>1.002073287963867E-3</v>
       </c>
       <c r="J12">
-        <v>2.998113632202148E-3</v>
+        <v>2.99835205078125E-3</v>
       </c>
       <c r="K12">
-        <v>9.9945068359375E-4</v>
+        <v>7.0004463195800781E-3</v>
       </c>
       <c r="L12">
-        <v>3.0004978179931641E-3</v>
+        <v>1.9996166229248051E-3</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -836,34 +836,34 @@
         <v>1</v>
       </c>
       <c r="C14">
-        <v>1548</v>
+        <v>1703</v>
       </c>
       <c r="D14">
-        <v>1548</v>
+        <v>1703</v>
       </c>
       <c r="E14">
-        <v>1548</v>
+        <v>1703</v>
       </c>
       <c r="F14">
-        <v>1548</v>
+        <v>1703</v>
       </c>
       <c r="G14">
-        <v>1548</v>
+        <v>1703</v>
       </c>
       <c r="H14">
-        <v>1548</v>
+        <v>1703</v>
       </c>
       <c r="I14">
-        <v>1548</v>
+        <v>1703</v>
       </c>
       <c r="J14">
-        <v>1548</v>
+        <v>1703</v>
       </c>
       <c r="K14">
-        <v>1548</v>
+        <v>1703</v>
       </c>
       <c r="L14">
-        <v>1548</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -871,34 +871,34 @@
         <v>2</v>
       </c>
       <c r="C15">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D15">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E15">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F15">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="G15">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H15">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="I15">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J15">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="K15">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="L15">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -906,34 +906,34 @@
         <v>3</v>
       </c>
       <c r="C16">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="D16">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="E16">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="F16">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="G16">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="H16">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="I16">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="J16">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="K16">
-        <v>125</v>
+        <v>155</v>
       </c>
       <c r="L16">
-        <v>125</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -941,34 +941,34 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>0.30770969390869141</v>
+        <v>0.17061758041381839</v>
       </c>
       <c r="D17">
-        <v>0.36216330528259277</v>
+        <v>0.14824700355529791</v>
       </c>
       <c r="E17">
-        <v>0.3080294132232666</v>
+        <v>0.1350860595703125</v>
       </c>
       <c r="F17">
-        <v>0.31618165969848627</v>
+        <v>0.13702082633972171</v>
       </c>
       <c r="G17">
-        <v>0.35773825645446777</v>
+        <v>0.12497925758361821</v>
       </c>
       <c r="H17">
-        <v>0.29695868492126459</v>
+        <v>0.157947301864624</v>
       </c>
       <c r="I17">
-        <v>0.31888008117675781</v>
+        <v>0.13901638984680181</v>
       </c>
       <c r="J17">
-        <v>0.26894330978393549</v>
+        <v>0.16000509262084961</v>
       </c>
       <c r="K17">
-        <v>0.30896401405334473</v>
+        <v>0.15896487236022949</v>
       </c>
       <c r="L17">
-        <v>0.27690792083740229</v>
+        <v>0.16834139823913569</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -976,34 +976,34 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>8.1259965896606445E-2</v>
+        <v>9.390711784362793E-2</v>
       </c>
       <c r="D18">
-        <v>0.12090516090393071</v>
+        <v>0.1008591651916504</v>
       </c>
       <c r="E18">
-        <v>9.9071741104125977E-2</v>
+        <v>8.6931228637695313E-2</v>
       </c>
       <c r="F18">
-        <v>9.2493772506713867E-2</v>
+        <v>7.8961610794067383E-2</v>
       </c>
       <c r="G18">
-        <v>0.1301157474517822</v>
+        <v>8.6929798126220703E-2</v>
       </c>
       <c r="H18">
-        <v>0.1009199619293213</v>
+        <v>7.8964710235595703E-2</v>
       </c>
       <c r="I18">
-        <v>9.8967075347900391E-2</v>
+        <v>9.6908807754516602E-2</v>
       </c>
       <c r="J18">
-        <v>9.5936059951782227E-2</v>
+        <v>7.593846321105957E-2</v>
       </c>
       <c r="K18">
-        <v>8.7958097457885742E-2</v>
+        <v>9.8972558975219727E-2</v>
       </c>
       <c r="L18">
-        <v>0.1039798259735107</v>
+        <v>6.4595222473144531E-2</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1014,25 +1014,175 @@
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C20">
+        <v>3581</v>
+      </c>
+      <c r="D20">
+        <v>3581</v>
+      </c>
+      <c r="E20">
+        <v>3581</v>
+      </c>
+      <c r="F20">
+        <v>3581</v>
+      </c>
+      <c r="G20">
+        <v>3581</v>
+      </c>
+      <c r="H20">
+        <v>3581</v>
+      </c>
+      <c r="I20">
+        <v>3581</v>
+      </c>
+      <c r="J20">
+        <v>3581</v>
+      </c>
+      <c r="K20">
+        <v>3581</v>
+      </c>
+      <c r="L20">
+        <v>3581</v>
+      </c>
     </row>
     <row r="21" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C21">
+        <v>992</v>
+      </c>
+      <c r="D21">
+        <v>992</v>
+      </c>
+      <c r="E21">
+        <v>992</v>
+      </c>
+      <c r="F21">
+        <v>992</v>
+      </c>
+      <c r="G21">
+        <v>992</v>
+      </c>
+      <c r="H21">
+        <v>992</v>
+      </c>
+      <c r="I21">
+        <v>992</v>
+      </c>
+      <c r="J21">
+        <v>992</v>
+      </c>
+      <c r="K21">
+        <v>992</v>
+      </c>
+      <c r="L21">
+        <v>992</v>
+      </c>
     </row>
     <row r="22" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C22">
+        <v>236</v>
+      </c>
+      <c r="D22">
+        <v>236</v>
+      </c>
+      <c r="E22">
+        <v>236</v>
+      </c>
+      <c r="F22">
+        <v>236</v>
+      </c>
+      <c r="G22">
+        <v>236</v>
+      </c>
+      <c r="H22">
+        <v>236</v>
+      </c>
+      <c r="I22">
+        <v>236</v>
+      </c>
+      <c r="J22">
+        <v>236</v>
+      </c>
+      <c r="K22">
+        <v>236</v>
+      </c>
+      <c r="L22">
+        <v>236</v>
+      </c>
     </row>
     <row r="23" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C23">
+        <v>0.48882150650024409</v>
+      </c>
+      <c r="D23">
+        <v>0.38789606094360352</v>
+      </c>
+      <c r="E23">
+        <v>0.45088839530944819</v>
+      </c>
+      <c r="F23">
+        <v>0.43920111656188959</v>
+      </c>
+      <c r="G23">
+        <v>0.4356532096862793</v>
+      </c>
+      <c r="H23">
+        <v>0.44384860992431641</v>
+      </c>
+      <c r="I23">
+        <v>0.41070842742919922</v>
+      </c>
+      <c r="J23">
+        <v>0.54007363319396973</v>
+      </c>
+      <c r="K23">
+        <v>0.46574282646179199</v>
+      </c>
+      <c r="L23">
+        <v>0.48490071296691889</v>
+      </c>
     </row>
     <row r="24" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="C24">
+        <v>0.18301653861999509</v>
+      </c>
+      <c r="D24">
+        <v>0.18394970893859861</v>
+      </c>
+      <c r="E24">
+        <v>0.16247749328613281</v>
+      </c>
+      <c r="F24">
+        <v>0.166712760925293</v>
+      </c>
+      <c r="G24">
+        <v>0.1569406986236572</v>
+      </c>
+      <c r="H24">
+        <v>0.17492938041687009</v>
+      </c>
+      <c r="I24">
+        <v>0.17101764678955081</v>
+      </c>
+      <c r="J24">
+        <v>0.17789340019226069</v>
+      </c>
+      <c r="K24">
+        <v>0.16934037208557129</v>
+      </c>
+      <c r="L24">
+        <v>0.17120862007141111</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1044,13 +1194,34 @@
         <v>1</v>
       </c>
       <c r="C26">
-        <v>41169</v>
+        <v>42896</v>
       </c>
       <c r="D26">
-        <v>41169</v>
+        <v>42896</v>
       </c>
       <c r="E26">
-        <v>41169</v>
+        <v>42896</v>
+      </c>
+      <c r="F26">
+        <v>42896</v>
+      </c>
+      <c r="G26">
+        <v>42896</v>
+      </c>
+      <c r="H26">
+        <v>42896</v>
+      </c>
+      <c r="I26">
+        <v>42896</v>
+      </c>
+      <c r="J26">
+        <v>42896</v>
+      </c>
+      <c r="K26">
+        <v>42896</v>
+      </c>
+      <c r="L26">
+        <v>42896</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1058,13 +1229,34 @@
         <v>2</v>
       </c>
       <c r="C27">
-        <v>2453</v>
+        <v>2782</v>
       </c>
       <c r="D27">
-        <v>2453</v>
+        <v>2782</v>
       </c>
       <c r="E27">
-        <v>2453</v>
+        <v>2782</v>
+      </c>
+      <c r="F27">
+        <v>2782</v>
+      </c>
+      <c r="G27">
+        <v>2782</v>
+      </c>
+      <c r="H27">
+        <v>2782</v>
+      </c>
+      <c r="I27">
+        <v>2782</v>
+      </c>
+      <c r="J27">
+        <v>2782</v>
+      </c>
+      <c r="K27">
+        <v>2782</v>
+      </c>
+      <c r="L27">
+        <v>2782</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1072,13 +1264,34 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <v>11901</v>
+        <v>12085</v>
       </c>
       <c r="D28">
-        <v>11901</v>
+        <v>12085</v>
       </c>
       <c r="E28">
-        <v>11901</v>
+        <v>12085</v>
+      </c>
+      <c r="F28">
+        <v>12085</v>
+      </c>
+      <c r="G28">
+        <v>12085</v>
+      </c>
+      <c r="H28">
+        <v>12085</v>
+      </c>
+      <c r="I28">
+        <v>12085</v>
+      </c>
+      <c r="J28">
+        <v>12085</v>
+      </c>
+      <c r="K28">
+        <v>12085</v>
+      </c>
+      <c r="L28">
+        <v>12085</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1086,13 +1299,34 @@
         <v>4</v>
       </c>
       <c r="C29">
-        <v>8.1789393424987793</v>
+        <v>4.296452522277832</v>
       </c>
       <c r="D29">
-        <v>6.8762404918670654</v>
+        <v>4.6112868785858154</v>
       </c>
       <c r="E29">
-        <v>6.4286930561065674</v>
+        <v>4.4008598327636719</v>
+      </c>
+      <c r="F29">
+        <v>4.4886825084686279</v>
+      </c>
+      <c r="G29">
+        <v>4.3788621425628662</v>
+      </c>
+      <c r="H29">
+        <v>4.6028213500976563</v>
+      </c>
+      <c r="I29">
+        <v>4.8710696697235107</v>
+      </c>
+      <c r="J29">
+        <v>4.6604132652282706</v>
+      </c>
+      <c r="K29">
+        <v>5.5213375091552734</v>
+      </c>
+      <c r="L29">
+        <v>4.528688907623291</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1100,13 +1334,34 @@
         <v>5</v>
       </c>
       <c r="C30">
-        <v>2.498653888702393</v>
+        <v>1.925020217895508</v>
       </c>
       <c r="D30">
-        <v>2.0792911052703862</v>
+        <v>1.9723162651062009</v>
       </c>
       <c r="E30">
-        <v>2.0839495658874512</v>
+        <v>1.8902966976165769</v>
+      </c>
+      <c r="F30">
+        <v>2.0137674808502202</v>
+      </c>
+      <c r="G30">
+        <v>1.8932843208312991</v>
+      </c>
+      <c r="H30">
+        <v>2.0617673397064209</v>
+      </c>
+      <c r="I30">
+        <v>2.128768682479858</v>
+      </c>
+      <c r="J30">
+        <v>2.0440831184387211</v>
+      </c>
+      <c r="K30">
+        <v>2.2848834991455078</v>
+      </c>
+      <c r="L30">
+        <v>2.0975503921508789</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1223,34 +1478,34 @@
         <v>4</v>
       </c>
       <c r="C35">
-        <v>3.9987564086914063E-3</v>
+        <v>1.999139785766602E-3</v>
       </c>
       <c r="D35">
-        <v>1.9989013671875E-3</v>
+        <v>2.9971599578857422E-3</v>
       </c>
       <c r="E35">
-        <v>3.0002593994140621E-3</v>
+        <v>9.8180770874023438E-4</v>
       </c>
       <c r="F35">
-        <v>3.9982795715332031E-3</v>
+        <v>9.8943710327148438E-4</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>5.9978961944580078E-3</v>
+        <v>1.999139785766602E-3</v>
       </c>
       <c r="I35">
-        <v>1.999139785766602E-3</v>
+        <v>2.9988288879394531E-3</v>
       </c>
       <c r="J35">
-        <v>2.998590469360352E-3</v>
+        <v>2.0008087158203121E-3</v>
       </c>
       <c r="K35">
-        <v>1.9993782043457031E-3</v>
+        <v>2.9990673065185551E-3</v>
       </c>
       <c r="L35">
-        <v>1.999139785766602E-3</v>
+        <v>1.0163784027099609E-3</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1267,25 +1522,25 @@
         <v>0</v>
       </c>
       <c r="F36">
+        <v>9.9968910217285156E-4</v>
+      </c>
+      <c r="G36">
+        <v>9.9968910217285156E-4</v>
+      </c>
+      <c r="H36">
         <v>9.9945068359375E-4</v>
       </c>
-      <c r="G36">
-        <v>2.9978752136230469E-3</v>
-      </c>
-      <c r="H36">
-        <v>2.9993057250976558E-3</v>
-      </c>
       <c r="I36">
-        <v>9.9968910217285156E-4</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>9.9968910217285156E-4</v>
+        <v>9.9849700927734375E-4</v>
       </c>
       <c r="K36">
-        <v>9.9992752075195313E-4</v>
+        <v>0</v>
       </c>
       <c r="L36">
-        <v>9.9968910217285156E-4</v>
+        <v>2.0003318786621089E-3</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1297,34 +1552,34 @@
         <v>1</v>
       </c>
       <c r="C38">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D38">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E38">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F38">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G38">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H38">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I38">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="J38">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K38">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L38">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1402,34 +1657,34 @@
         <v>4</v>
       </c>
       <c r="C41">
-        <v>1.30000114440918E-2</v>
+        <v>4.9979686737060547E-3</v>
       </c>
       <c r="D41">
-        <v>1.3005971908569339E-2</v>
+        <v>4.2266845703125E-3</v>
       </c>
       <c r="E41">
-        <v>1.199674606323242E-2</v>
+        <v>3.9629936218261719E-3</v>
       </c>
       <c r="F41">
-        <v>1.297712326049805E-2</v>
+        <v>5.0184726715087891E-3</v>
       </c>
       <c r="G41">
-        <v>2.0974874496459961E-2</v>
+        <v>7.9898834228515625E-3</v>
       </c>
       <c r="H41">
-        <v>1.2995481491088871E-2</v>
+        <v>3.9992332458496094E-3</v>
       </c>
       <c r="I41">
-        <v>1.2991428375244141E-2</v>
+        <v>4.0020942687988281E-3</v>
       </c>
       <c r="J41">
-        <v>1.1018276214599609E-2</v>
+        <v>6.9980621337890616E-3</v>
       </c>
       <c r="K41">
-        <v>1.1972904205322271E-2</v>
+        <v>2.987146377563477E-3</v>
       </c>
       <c r="L41">
-        <v>1.4009714126586911E-2</v>
+        <v>6.0143470764160156E-3</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1437,34 +1692,34 @@
         <v>5</v>
       </c>
       <c r="C42">
-        <v>2.9990673065185551E-3</v>
+        <v>2.998113632202148E-3</v>
       </c>
       <c r="D42">
-        <v>3.9885044097900391E-3</v>
+        <v>2.9559135437011719E-3</v>
       </c>
       <c r="E42">
-        <v>2.9988288879394531E-3</v>
+        <v>8.007049560546875E-3</v>
       </c>
       <c r="F42">
-        <v>3.9997100830078116E-3</v>
+        <v>9.8299980163574219E-4</v>
       </c>
       <c r="G42">
-        <v>4.4856071472167969E-3</v>
+        <v>3.0279159545898442E-3</v>
       </c>
       <c r="H42">
-        <v>2.0000934600830078E-3</v>
+        <v>1.9993782043457031E-3</v>
       </c>
       <c r="I42">
-        <v>3.9987564086914063E-3</v>
+        <v>7.9793930053710938E-3</v>
       </c>
       <c r="J42">
-        <v>9.9992752075195313E-4</v>
+        <v>2.9969215393066411E-3</v>
       </c>
       <c r="K42">
-        <v>6.0243606567382813E-3</v>
+        <v>6.9978237152099609E-3</v>
       </c>
       <c r="L42">
-        <v>4.9927234649658203E-3</v>
+        <v>3.9985179901123047E-3</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1476,34 +1731,34 @@
         <v>1</v>
       </c>
       <c r="C44">
-        <v>1548</v>
+        <v>1703</v>
       </c>
       <c r="D44">
-        <v>1548</v>
+        <v>1703</v>
       </c>
       <c r="E44">
-        <v>1548</v>
+        <v>1703</v>
       </c>
       <c r="F44">
-        <v>1548</v>
+        <v>1703</v>
       </c>
       <c r="G44">
-        <v>1548</v>
+        <v>1703</v>
       </c>
       <c r="H44">
-        <v>1548</v>
+        <v>1703</v>
       </c>
       <c r="I44">
-        <v>1548</v>
+        <v>1703</v>
       </c>
       <c r="J44">
-        <v>1548</v>
+        <v>1703</v>
       </c>
       <c r="K44">
-        <v>1548</v>
+        <v>1703</v>
       </c>
       <c r="L44">
-        <v>1548</v>
+        <v>1703</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1511,34 +1766,34 @@
         <v>2</v>
       </c>
       <c r="C45">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="D45">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="E45">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="F45">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="G45">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="H45">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="I45">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="J45">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="K45">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="L45">
-        <v>64</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1581,34 +1836,34 @@
         <v>4</v>
       </c>
       <c r="C47">
-        <v>0.3571467399597168</v>
+        <v>0.1639404296875</v>
       </c>
       <c r="D47">
-        <v>0.30887031555175781</v>
+        <v>0.16195511817932129</v>
       </c>
       <c r="E47">
-        <v>0.31885337829589838</v>
+        <v>0.15202188491821289</v>
       </c>
       <c r="F47">
-        <v>0.32890939712524409</v>
+        <v>0.14282011985778811</v>
       </c>
       <c r="G47">
-        <v>0.35288715362548828</v>
+        <v>0.16011762619018549</v>
       </c>
       <c r="H47">
-        <v>0.29287528991699219</v>
+        <v>0.1419937610626221</v>
       </c>
       <c r="I47">
-        <v>0.31018328666687012</v>
+        <v>0.1529691219329834</v>
       </c>
       <c r="J47">
-        <v>0.34592747688293463</v>
+        <v>0.22100687026977539</v>
       </c>
       <c r="K47">
-        <v>0.27992153167724609</v>
+        <v>0.17309474945068359</v>
       </c>
       <c r="L47">
-        <v>0.34093022346496582</v>
+        <v>0.17491865158081049</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1616,34 +1871,34 @@
         <v>5</v>
       </c>
       <c r="C48">
-        <v>0.12998390197753909</v>
+        <v>8.5962057113647461E-2</v>
       </c>
       <c r="D48">
-        <v>9.5438718795776367E-2</v>
+        <v>0.107999324798584</v>
       </c>
       <c r="E48">
-        <v>0.10195827484130859</v>
+        <v>9.6054315567016602E-2</v>
       </c>
       <c r="F48">
-        <v>0.1031713485717773</v>
+        <v>8.7152004241943359E-2</v>
       </c>
       <c r="G48">
-        <v>9.5972776412963867E-2</v>
+        <v>7.7027559280395508E-2</v>
       </c>
       <c r="H48">
-        <v>0.1089897155761719</v>
+        <v>8.4933280944824219E-2</v>
       </c>
       <c r="I48">
-        <v>8.6024045944213867E-2</v>
+        <v>8.9964151382446289E-2</v>
       </c>
       <c r="J48">
-        <v>0.1129040718078613</v>
+        <v>0.12894487380981451</v>
       </c>
       <c r="K48">
-        <v>0.101978063583374</v>
+        <v>0.10586428642272951</v>
       </c>
       <c r="L48">
-        <v>9.9950790405273438E-2</v>
+        <v>9.4979286193847656E-2</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1654,25 +1909,175 @@
       <c r="B50" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C50">
+        <v>6617</v>
+      </c>
+      <c r="D50">
+        <v>6617</v>
+      </c>
+      <c r="E50">
+        <v>6617</v>
+      </c>
+      <c r="F50">
+        <v>6617</v>
+      </c>
+      <c r="G50">
+        <v>6617</v>
+      </c>
+      <c r="H50">
+        <v>6617</v>
+      </c>
+      <c r="I50">
+        <v>6617</v>
+      </c>
+      <c r="J50">
+        <v>6617</v>
+      </c>
+      <c r="K50">
+        <v>6617</v>
+      </c>
+      <c r="L50">
+        <v>6617</v>
+      </c>
     </row>
     <row r="51" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B51" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C51">
+        <v>1224</v>
+      </c>
+      <c r="D51">
+        <v>1224</v>
+      </c>
+      <c r="E51">
+        <v>1224</v>
+      </c>
+      <c r="F51">
+        <v>1224</v>
+      </c>
+      <c r="G51">
+        <v>1224</v>
+      </c>
+      <c r="H51">
+        <v>1224</v>
+      </c>
+      <c r="I51">
+        <v>1224</v>
+      </c>
+      <c r="J51">
+        <v>1224</v>
+      </c>
+      <c r="K51">
+        <v>1224</v>
+      </c>
+      <c r="L51">
+        <v>1224</v>
+      </c>
     </row>
     <row r="52" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B52" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B53" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C53">
+        <v>0.72183823585510254</v>
+      </c>
+      <c r="D53">
+        <v>1.211709260940552</v>
+      </c>
+      <c r="E53">
+        <v>0.74512958526611328</v>
+      </c>
+      <c r="F53">
+        <v>0.78801774978637695</v>
+      </c>
+      <c r="G53">
+        <v>0.75779151916503906</v>
+      </c>
+      <c r="H53">
+        <v>0.78873467445373535</v>
+      </c>
+      <c r="I53">
+        <v>0.78835153579711914</v>
+      </c>
+      <c r="J53">
+        <v>0.77883386611938477</v>
+      </c>
+      <c r="K53">
+        <v>0.94837021827697754</v>
+      </c>
+      <c r="L53">
+        <v>0.8347775936126709</v>
+      </c>
     </row>
     <row r="54" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>5</v>
+      </c>
+      <c r="C54">
+        <v>0.35413503646850591</v>
+      </c>
+      <c r="D54">
+        <v>0.58324646949768066</v>
+      </c>
+      <c r="E54">
+        <v>0.37169146537780762</v>
+      </c>
+      <c r="F54">
+        <v>0.34793233871459961</v>
+      </c>
+      <c r="G54">
+        <v>0.3496248722076416</v>
+      </c>
+      <c r="H54">
+        <v>0.34373283386230469</v>
+      </c>
+      <c r="I54">
+        <v>0.3521888256072998</v>
+      </c>
+      <c r="J54">
+        <v>0.41143012046813959</v>
+      </c>
+      <c r="K54">
+        <v>0.43991398811340332</v>
+      </c>
+      <c r="L54">
+        <v>0.3987581729888916</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1689,6 +2094,30 @@
       <c r="D56">
         <v>73772</v>
       </c>
+      <c r="E56">
+        <v>64715</v>
+      </c>
+      <c r="F56">
+        <v>64715</v>
+      </c>
+      <c r="G56">
+        <v>64715</v>
+      </c>
+      <c r="H56">
+        <v>64715</v>
+      </c>
+      <c r="I56">
+        <v>64715</v>
+      </c>
+      <c r="J56">
+        <v>64715</v>
+      </c>
+      <c r="K56">
+        <v>64715</v>
+      </c>
+      <c r="L56">
+        <v>64715</v>
+      </c>
     </row>
     <row r="57" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B57" s="1" t="s">
@@ -1700,6 +2129,30 @@
       <c r="D57">
         <v>5869</v>
       </c>
+      <c r="E57">
+        <v>5201</v>
+      </c>
+      <c r="F57">
+        <v>5201</v>
+      </c>
+      <c r="G57">
+        <v>5201</v>
+      </c>
+      <c r="H57">
+        <v>5201</v>
+      </c>
+      <c r="I57">
+        <v>5201</v>
+      </c>
+      <c r="J57">
+        <v>5201</v>
+      </c>
+      <c r="K57">
+        <v>5201</v>
+      </c>
+      <c r="L57">
+        <v>5201</v>
+      </c>
     </row>
     <row r="58" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B58" s="1" t="s">
@@ -1711,6 +2164,30 @@
       <c r="D58">
         <v>0</v>
       </c>
+      <c r="E58">
+        <v>0</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B59" s="1" t="s">
@@ -1722,6 +2199,30 @@
       <c r="D59">
         <v>18.523777723312381</v>
       </c>
+      <c r="E59">
+        <v>12.59141206741333</v>
+      </c>
+      <c r="F59">
+        <v>14.92316246032715</v>
+      </c>
+      <c r="G59">
+        <v>9.2303011417388916</v>
+      </c>
+      <c r="H59">
+        <v>9.0992021560668945</v>
+      </c>
+      <c r="I59">
+        <v>10.354842185974119</v>
+      </c>
+      <c r="J59">
+        <v>11.18181300163269</v>
+      </c>
+      <c r="K59">
+        <v>9.5170748233795166</v>
+      </c>
+      <c r="L59">
+        <v>14.58810114860535</v>
+      </c>
     </row>
     <row r="60" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B60" s="1" t="s">
@@ -1733,7 +2234,32 @@
       <c r="D60">
         <v>5.6240179538726807</v>
       </c>
-    </row>
+      <c r="E60">
+        <v>6.3591723442077637</v>
+      </c>
+      <c r="F60">
+        <v>7.636049747467041</v>
+      </c>
+      <c r="G60">
+        <v>4.6602978706359863</v>
+      </c>
+      <c r="H60">
+        <v>4.473085880279541</v>
+      </c>
+      <c r="I60">
+        <v>5.3780422210693359</v>
+      </c>
+      <c r="J60">
+        <v>5.2915041446685791</v>
+      </c>
+      <c r="K60">
+        <v>4.8308939933776864</v>
+      </c>
+      <c r="L60">
+        <v>7.357633113861084</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="15" x14ac:dyDescent="0.25"/>
     <row r="62" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>15</v>
@@ -1847,34 +2373,34 @@
         <v>4</v>
       </c>
       <c r="C65">
-        <v>2.9993057250976558E-3</v>
+        <v>9.9945068359375E-4</v>
       </c>
       <c r="D65">
-        <v>2.9988288879394531E-3</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>4.9982070922851563E-3</v>
+        <v>1.9996166229248051E-3</v>
       </c>
       <c r="F65">
-        <v>2.0003318786621089E-3</v>
+        <v>3.0002593994140621E-3</v>
       </c>
       <c r="G65">
-        <v>7.9970359802246094E-3</v>
+        <v>2.0170211791992192E-3</v>
       </c>
       <c r="H65">
-        <v>9.9539756774902344E-4</v>
+        <v>3.0159950256347661E-3</v>
       </c>
       <c r="I65">
-        <v>3.0004978179931641E-3</v>
+        <v>1.0001659393310549E-3</v>
       </c>
       <c r="J65">
-        <v>1.9989013671875E-3</v>
+        <v>9.9921226501464844E-4</v>
       </c>
       <c r="K65">
-        <v>1.0001659393310549E-3</v>
+        <v>0</v>
       </c>
       <c r="L65">
-        <v>4.9891471862792969E-3</v>
+        <v>1.9998550415039058E-3</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1885,33 +2411,34 @@
         <v>0</v>
       </c>
       <c r="D66">
-        <v>0</v>
+        <v>2.998113632202148E-3</v>
       </c>
       <c r="E66">
         <v>0</v>
       </c>
       <c r="F66">
-        <v>3.9989948272705078E-3</v>
+        <v>9.9945068359375E-4</v>
       </c>
       <c r="G66">
-        <v>2.9990673065185551E-3</v>
+        <v>1.0001659393310549E-3</v>
       </c>
       <c r="H66">
-        <v>0</v>
+        <v>1.0001659393310549E-3</v>
       </c>
       <c r="I66">
         <v>0</v>
       </c>
       <c r="J66">
-        <v>9.9945068359375E-4</v>
+        <v>1.0011196136474609E-3</v>
       </c>
       <c r="K66">
-        <v>9.9992752075195313E-4</v>
+        <v>1.9993782043457031E-3</v>
       </c>
       <c r="L66">
-        <v>0</v>
-      </c>
-    </row>
+        <v>9.9897384643554688E-4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="15" x14ac:dyDescent="0.25"/>
     <row r="68" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>16</v>
@@ -2025,34 +2552,34 @@
         <v>4</v>
       </c>
       <c r="C71">
-        <v>6.0987234115600593E-2</v>
+        <v>3.199005126953125E-2</v>
       </c>
       <c r="D71">
-        <v>4.5962333679199219E-2</v>
+        <v>2.2005319595336911E-2</v>
       </c>
       <c r="E71">
-        <v>5.1971912384033203E-2</v>
+        <v>2.3982048034667969E-2</v>
       </c>
       <c r="F71">
-        <v>4.7582149505615227E-2</v>
+        <v>1.70130729675293E-2</v>
       </c>
       <c r="G71">
-        <v>5.696868896484375E-2</v>
+        <v>1.7954826354980469E-2</v>
       </c>
       <c r="H71">
-        <v>4.6959161758422852E-2</v>
+        <v>2.4991273880004879E-2</v>
       </c>
       <c r="I71">
-        <v>6.6938400268554688E-2</v>
+        <v>1.7960786819458011E-2</v>
       </c>
       <c r="J71">
-        <v>4.496002197265625E-2</v>
+        <v>1.7996072769165039E-2</v>
       </c>
       <c r="K71">
-        <v>4.4936895370483398E-2</v>
+        <v>2.600193023681641E-2</v>
       </c>
       <c r="L71">
-        <v>4.9007892608642578E-2</v>
+        <v>3.5265684127807617E-2</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2060,36 +2587,37 @@
         <v>5</v>
       </c>
       <c r="C72">
-        <v>2.0974874496459961E-2</v>
+        <v>7.0173740386962891E-3</v>
       </c>
       <c r="D72">
-        <v>1.19931697845459E-2</v>
+        <v>9.9337100982666016E-3</v>
       </c>
       <c r="E72">
-        <v>1.705217361450195E-2</v>
+        <v>1.401209831237793E-2</v>
       </c>
       <c r="F72">
-        <v>2.5092363357543949E-2</v>
+        <v>1.3991594314575201E-2</v>
       </c>
       <c r="G72">
-        <v>7.9982280731201172E-3</v>
+        <v>1.3993740081787109E-2</v>
       </c>
       <c r="H72">
-        <v>9.975433349609375E-3</v>
+        <v>8.9976787567138672E-3</v>
       </c>
       <c r="I72">
-        <v>8.9943408966064453E-3</v>
+        <v>1.1016845703125E-2</v>
       </c>
       <c r="J72">
-        <v>1.301145553588867E-2</v>
+        <v>1.8082380294799801E-2</v>
       </c>
       <c r="K72">
-        <v>1.3997554779052729E-2</v>
+        <v>6.9932937622070313E-3</v>
       </c>
       <c r="L72">
-        <v>1.398372650146484E-2</v>
-      </c>
-    </row>
+        <v>4.9979686737060547E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="15" x14ac:dyDescent="0.25"/>
     <row r="74" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>17</v>
@@ -2203,34 +2731,34 @@
         <v>4</v>
       </c>
       <c r="C77">
-        <v>1.2247893810272219</v>
+        <v>0.59915733337402344</v>
       </c>
       <c r="D77">
-        <v>1.173215389251709</v>
+        <v>0.57078003883361816</v>
       </c>
       <c r="E77">
-        <v>1.304550886154175</v>
+        <v>0.54311656951904297</v>
       </c>
       <c r="F77">
-        <v>1.364201545715332</v>
+        <v>0.56768059730529785</v>
       </c>
       <c r="G77">
-        <v>1.2230932712554929</v>
+        <v>0.49915671348571777</v>
       </c>
       <c r="H77">
-        <v>1.1783556938171389</v>
+        <v>0.55768013000488281</v>
       </c>
       <c r="I77">
-        <v>1.0948770046234131</v>
+        <v>0.61182379722595215</v>
       </c>
       <c r="J77">
-        <v>1.111953020095825</v>
+        <v>0.80016613006591797</v>
       </c>
       <c r="K77">
-        <v>1.1445543766021731</v>
+        <v>0.55794143676757813</v>
       </c>
       <c r="L77">
-        <v>1.1247372627258301</v>
+        <v>0.70818352699279785</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2238,36 +2766,37 @@
         <v>5</v>
       </c>
       <c r="C78">
-        <v>0.40914368629455572</v>
+        <v>0.28978848457336431</v>
       </c>
       <c r="D78">
-        <v>0.39599800109863281</v>
+        <v>0.28118658065795898</v>
       </c>
       <c r="E78">
-        <v>0.39313411712646479</v>
+        <v>0.30308747291564941</v>
       </c>
       <c r="F78">
-        <v>0.41034269332885742</v>
+        <v>0.31292462348937988</v>
       </c>
       <c r="G78">
-        <v>0.39769625663757319</v>
+        <v>0.29686355590820313</v>
       </c>
       <c r="H78">
-        <v>0.35717391967773438</v>
+        <v>0.30190420150756841</v>
       </c>
       <c r="I78">
-        <v>0.34159541130065918</v>
+        <v>0.29993081092834473</v>
       </c>
       <c r="J78">
-        <v>0.3275444507598877</v>
+        <v>0.42132377624511719</v>
       </c>
       <c r="K78">
-        <v>0.3469538688659668</v>
+        <v>0.33671307563781738</v>
       </c>
       <c r="L78">
-        <v>0.32338762283325201</v>
-      </c>
-    </row>
+        <v>0.66377973556518555</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="15" x14ac:dyDescent="0.25"/>
     <row r="80" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
         <v>18</v>
@@ -2275,27 +2804,178 @@
       <c r="B80" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C80">
+        <v>80667</v>
+      </c>
+      <c r="D80">
+        <v>80667</v>
+      </c>
+      <c r="E80">
+        <v>80667</v>
+      </c>
+      <c r="F80">
+        <v>80667</v>
+      </c>
+      <c r="G80">
+        <v>80667</v>
+      </c>
+      <c r="H80">
+        <v>80667</v>
+      </c>
+      <c r="I80">
+        <v>80667</v>
+      </c>
+      <c r="J80">
+        <v>80667</v>
+      </c>
+      <c r="K80">
+        <v>80667</v>
+      </c>
+      <c r="L80">
+        <v>80667</v>
+      </c>
     </row>
     <row r="81" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B81" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81">
+        <v>0</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>0</v>
+      </c>
+      <c r="H81">
+        <v>0</v>
+      </c>
+      <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B82" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="C82">
+        <v>13647</v>
+      </c>
+      <c r="D82">
+        <v>13647</v>
+      </c>
+      <c r="E82">
+        <v>13647</v>
+      </c>
+      <c r="F82">
+        <v>13647</v>
+      </c>
+      <c r="G82">
+        <v>13647</v>
+      </c>
+      <c r="H82">
+        <v>13647</v>
+      </c>
+      <c r="I82">
+        <v>13647</v>
+      </c>
+      <c r="J82">
+        <v>13647</v>
+      </c>
+      <c r="K82">
+        <v>13647</v>
+      </c>
+      <c r="L82">
+        <v>13647</v>
+      </c>
     </row>
     <row r="83" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B83" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C83">
+        <v>8.0389375686645508</v>
+      </c>
+      <c r="D83">
+        <v>8.7995667457580566</v>
+      </c>
+      <c r="E83">
+        <v>7.5051877498626709</v>
+      </c>
+      <c r="F83">
+        <v>8.1220581531524658</v>
+      </c>
+      <c r="G83">
+        <v>7.9503531455993652</v>
+      </c>
+      <c r="H83">
+        <v>8.0227687358856201</v>
+      </c>
+      <c r="I83">
+        <v>7.8571763038635254</v>
+      </c>
+      <c r="J83">
+        <v>8.7813501358032227</v>
+      </c>
+      <c r="K83">
+        <v>8.2031664848327637</v>
+      </c>
+      <c r="L83">
+        <v>9.1417577266693115</v>
+      </c>
     </row>
     <row r="84" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B84" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
+      <c r="C84">
+        <v>4.2202708721160889</v>
+      </c>
+      <c r="D84">
+        <v>4.6674056053161621</v>
+      </c>
+      <c r="E84">
+        <v>4.1324436664581299</v>
+      </c>
+      <c r="F84">
+        <v>4.2480483055114746</v>
+      </c>
+      <c r="G84">
+        <v>4.2544260025024414</v>
+      </c>
+      <c r="H84">
+        <v>4.175649881362915</v>
+      </c>
+      <c r="I84">
+        <v>4.2174499034881592</v>
+      </c>
+      <c r="J84">
+        <v>4.6316578388214111</v>
+      </c>
+      <c r="K84">
+        <v>4.5972285270690918</v>
+      </c>
+      <c r="L84">
+        <v>4.9996259212493896</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="15" x14ac:dyDescent="0.25"/>
     <row r="86" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>19</v>
@@ -2309,6 +2989,30 @@
       <c r="D86">
         <v>1976683</v>
       </c>
+      <c r="E86">
+        <v>1977643</v>
+      </c>
+      <c r="F86">
+        <v>1977643</v>
+      </c>
+      <c r="G86">
+        <v>1977643</v>
+      </c>
+      <c r="H86">
+        <v>1977643</v>
+      </c>
+      <c r="I86">
+        <v>1977643</v>
+      </c>
+      <c r="J86">
+        <v>1977643</v>
+      </c>
+      <c r="K86">
+        <v>1977643</v>
+      </c>
+      <c r="L86">
+        <v>1977643</v>
+      </c>
     </row>
     <row r="87" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B87" s="1" t="s">
@@ -2320,6 +3024,30 @@
       <c r="D87">
         <v>0</v>
       </c>
+      <c r="E87">
+        <v>0</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <v>0</v>
+      </c>
+      <c r="J87">
+        <v>0</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B88" s="1" t="s">
@@ -2331,6 +3059,30 @@
       <c r="D88">
         <v>1256113</v>
       </c>
+      <c r="E88">
+        <v>1257073</v>
+      </c>
+      <c r="F88">
+        <v>1257073</v>
+      </c>
+      <c r="G88">
+        <v>1257073</v>
+      </c>
+      <c r="H88">
+        <v>1257073</v>
+      </c>
+      <c r="I88">
+        <v>1257073</v>
+      </c>
+      <c r="J88">
+        <v>1257073</v>
+      </c>
+      <c r="K88">
+        <v>1257073</v>
+      </c>
+      <c r="L88">
+        <v>1257073</v>
+      </c>
     </row>
     <row r="89" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B89" s="1" t="s">
@@ -2342,6 +3094,30 @@
       <c r="D89">
         <v>184.29094076156619</v>
       </c>
+      <c r="E89">
+        <v>98.46208381652832</v>
+      </c>
+      <c r="F89">
+        <v>90.251120090484619</v>
+      </c>
+      <c r="G89">
+        <v>91.286197662353516</v>
+      </c>
+      <c r="H89">
+        <v>90.944747686386108</v>
+      </c>
+      <c r="I89">
+        <v>90.700739860534668</v>
+      </c>
+      <c r="J89">
+        <v>91.468348503112793</v>
+      </c>
+      <c r="K89">
+        <v>91.930858612060547</v>
+      </c>
+      <c r="L89">
+        <v>89.724421262741089</v>
+      </c>
     </row>
     <row r="90" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B90" s="1" t="s">
@@ -2353,7 +3129,32 @@
       <c r="D90">
         <v>58.043334007263176</v>
       </c>
-    </row>
+      <c r="E90">
+        <v>52.447919130325317</v>
+      </c>
+      <c r="F90">
+        <v>48.387955665588379</v>
+      </c>
+      <c r="G90">
+        <v>48.233121633529663</v>
+      </c>
+      <c r="H90">
+        <v>48.925431251525879</v>
+      </c>
+      <c r="I90">
+        <v>47.912081480026252</v>
+      </c>
+      <c r="J90">
+        <v>47.70393967628479</v>
+      </c>
+      <c r="K90">
+        <v>48.412578821182251</v>
+      </c>
+      <c r="L90">
+        <v>48.219032764434807</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="15" x14ac:dyDescent="0.25"/>
     <row r="92" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>20</v>
@@ -2467,34 +3268,34 @@
         <v>4</v>
       </c>
       <c r="C95">
-        <v>9.9968910217285156E-4</v>
+        <v>0</v>
       </c>
       <c r="D95">
-        <v>1.9993782043457031E-3</v>
+        <v>1.9850730895996089E-3</v>
       </c>
       <c r="E95">
+        <v>1.999139785766602E-3</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <v>0</v>
+      </c>
+      <c r="H95">
+        <v>0</v>
+      </c>
+      <c r="I95">
         <v>9.9921226501464844E-4</v>
       </c>
-      <c r="F95">
-        <v>2.9823780059814449E-3</v>
-      </c>
-      <c r="G95">
-        <v>9.822845458984375E-4</v>
-      </c>
-      <c r="H95">
-        <v>9.9945068359375E-4</v>
-      </c>
-      <c r="I95">
-        <v>2.9954910278320308E-3</v>
-      </c>
       <c r="J95">
-        <v>2.9990673065185551E-3</v>
+        <v>0</v>
       </c>
       <c r="K95">
-        <v>1.9993782043457031E-3</v>
+        <v>1.9984245300292969E-3</v>
       </c>
       <c r="L95">
-        <v>1.9996166229248051E-3</v>
+        <v>2.0003318786621089E-3</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2502,36 +3303,37 @@
         <v>5</v>
       </c>
       <c r="C96">
-        <v>1.9993782043457031E-3</v>
+        <v>9.9921226501464844E-4</v>
       </c>
       <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96">
+        <v>9.9539756774902344E-4</v>
+      </c>
+      <c r="F96">
+        <v>9.9968910217285156E-4</v>
+      </c>
+      <c r="G96">
+        <v>1.9812583923339839E-3</v>
+      </c>
+      <c r="H96">
+        <v>1.9974708557128911E-3</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
         <v>9.9945068359375E-4</v>
       </c>
-      <c r="E96">
-        <v>9.9945068359375E-4</v>
-      </c>
-      <c r="F96">
-        <v>9.9921226501464844E-4</v>
-      </c>
-      <c r="G96">
-        <v>1.0170936584472661E-3</v>
-      </c>
-      <c r="H96">
-        <v>9.9921226501464844E-4</v>
-      </c>
-      <c r="I96">
-        <v>0</v>
-      </c>
-      <c r="J96">
-        <v>0</v>
-      </c>
       <c r="K96">
-        <v>9.9968910217285156E-4</v>
+        <v>0</v>
       </c>
       <c r="L96">
-        <v>9.9968910217285156E-4</v>
-      </c>
-    </row>
+        <v>1.998662948608398E-3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="15" x14ac:dyDescent="0.25"/>
     <row r="98" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>21</v>
@@ -2645,34 +3447,34 @@
         <v>4</v>
       </c>
       <c r="C101">
-        <v>5.3006410598754883E-2</v>
+        <v>1.8006086349487301E-2</v>
       </c>
       <c r="D101">
-        <v>5.494236946105957E-2</v>
+        <v>2.1005153656005859E-2</v>
       </c>
       <c r="E101">
-        <v>4.9044609069824219E-2</v>
+        <v>2.396488189697266E-2</v>
       </c>
       <c r="F101">
-        <v>5.3983926773071289E-2</v>
+        <v>1.5008449554443359E-2</v>
       </c>
       <c r="G101">
-        <v>6.8463802337646484E-2</v>
+        <v>3.2990694046020508E-2</v>
       </c>
       <c r="H101">
-        <v>4.3488264083862298E-2</v>
+        <v>1.5940666198730469E-2</v>
       </c>
       <c r="I101">
-        <v>5.9970617294311523E-2</v>
+        <v>2.0047426223754879E-2</v>
       </c>
       <c r="J101">
-        <v>5.7981252670288093E-2</v>
+        <v>2.100014686584473E-2</v>
       </c>
       <c r="K101">
-        <v>4.9976825714111328E-2</v>
+        <v>1.297402381896973E-2</v>
       </c>
       <c r="L101">
-        <v>4.4032096862792969E-2</v>
+        <v>2.46434211730957E-2</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2680,36 +3482,37 @@
         <v>5</v>
       </c>
       <c r="C102">
-        <v>8.9995861053466797E-3</v>
+        <v>1.3997793197631839E-2</v>
       </c>
       <c r="D102">
-        <v>1.4977931976318359E-2</v>
+        <v>7.9722404479980469E-3</v>
       </c>
       <c r="E102">
-        <v>1.5012741088867189E-2</v>
+        <v>1.19931697845459E-2</v>
       </c>
       <c r="F102">
-        <v>1.6992568969726559E-2</v>
+        <v>1.9994258880615231E-2</v>
       </c>
       <c r="G102">
-        <v>2.3977041244506839E-2</v>
+        <v>8.9821815490722656E-3</v>
       </c>
       <c r="H102">
-        <v>1.4998674392700201E-2</v>
+        <v>1.505231857299805E-2</v>
       </c>
       <c r="I102">
-        <v>2.0990371704101559E-2</v>
+        <v>1.7953872680664059E-2</v>
       </c>
       <c r="J102">
-        <v>1.498055458068848E-2</v>
+        <v>1.005673408508301E-2</v>
       </c>
       <c r="K102">
-        <v>9.9952220916748047E-3</v>
+        <v>1.6968011856079102E-2</v>
       </c>
       <c r="L102">
-        <v>1.499629020690918E-2</v>
-      </c>
-    </row>
+        <v>1.999139785766602E-3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="15" x14ac:dyDescent="0.25"/>
     <row r="104" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>22</v>
@@ -2823,34 +3626,34 @@
         <v>4</v>
       </c>
       <c r="C107">
-        <v>1.6568512916564939</v>
+        <v>0.65171718597412109</v>
       </c>
       <c r="D107">
-        <v>1.604375839233398</v>
+        <v>0.68762803077697754</v>
       </c>
       <c r="E107">
-        <v>1.6931333541870119</v>
+        <v>0.66077804565429688</v>
       </c>
       <c r="F107">
-        <v>1.817149877548218</v>
+        <v>0.62824726104736328</v>
       </c>
       <c r="G107">
-        <v>1.7133123874664311</v>
+        <v>0.66690182685852051</v>
       </c>
       <c r="H107">
-        <v>1.611691474914551</v>
+        <v>0.64141488075256348</v>
       </c>
       <c r="I107">
-        <v>1.463570117950439</v>
+        <v>0.71636199951171875</v>
       </c>
       <c r="J107">
-        <v>1.534017086029053</v>
+        <v>0.91969013214111328</v>
       </c>
       <c r="K107">
-        <v>1.5186014175415039</v>
+        <v>0.75153279304504395</v>
       </c>
       <c r="L107">
-        <v>1.5692107677459719</v>
+        <v>0.78160762786865234</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -2858,36 +3661,37 @@
         <v>5</v>
       </c>
       <c r="C108">
-        <v>0.5610806941986084</v>
+        <v>0.47191381454467768</v>
       </c>
       <c r="D108">
-        <v>0.50209236145019531</v>
+        <v>0.37592625617980963</v>
       </c>
       <c r="E108">
-        <v>0.51070094108581543</v>
+        <v>0.38853073120117188</v>
       </c>
       <c r="F108">
-        <v>0.60497117042541504</v>
+        <v>0.43777656555175781</v>
       </c>
       <c r="G108">
-        <v>0.52306580543518066</v>
+        <v>0.45700669288635248</v>
       </c>
       <c r="H108">
-        <v>0.44852280616760248</v>
+        <v>0.43492722511291498</v>
       </c>
       <c r="I108">
-        <v>0.49277520179748541</v>
+        <v>0.43313074111938482</v>
       </c>
       <c r="J108">
-        <v>0.48906707763671881</v>
+        <v>0.55704212188720703</v>
       </c>
       <c r="K108">
-        <v>0.48453092575073242</v>
+        <v>0.4987795352935791</v>
       </c>
       <c r="L108">
-        <v>0.49647402763366699</v>
-      </c>
-    </row>
+        <v>0.47083711624145508</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="15" x14ac:dyDescent="0.25"/>
     <row r="110" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>23</v>
@@ -2895,28 +3699,179 @@
       <c r="B110" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C110">
+        <v>224161</v>
+      </c>
+      <c r="D110">
+        <v>224161</v>
+      </c>
+      <c r="E110">
+        <v>224161</v>
+      </c>
+      <c r="F110">
+        <v>224161</v>
+      </c>
+      <c r="G110">
+        <v>224161</v>
+      </c>
+      <c r="H110">
+        <v>224161</v>
+      </c>
+      <c r="I110">
+        <v>224161</v>
+      </c>
+      <c r="J110">
+        <v>224161</v>
+      </c>
+      <c r="K110">
+        <v>224161</v>
+      </c>
+      <c r="L110">
+        <v>224161</v>
+      </c>
     </row>
     <row r="111" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B111" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111">
+        <v>0</v>
+      </c>
+      <c r="F111">
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+      <c r="H111">
+        <v>0</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B112" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C112">
+        <v>0</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112">
+        <v>0</v>
+      </c>
+      <c r="F112">
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <v>0</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>0</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B113" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C113">
+        <v>21.912536382675171</v>
+      </c>
+      <c r="D113">
+        <v>22.501662492752079</v>
+      </c>
+      <c r="E113">
+        <v>21.008027315139771</v>
+      </c>
+      <c r="F113">
+        <v>21.385729074478149</v>
+      </c>
+      <c r="G113">
+        <v>21.724730730056759</v>
+      </c>
+      <c r="H113">
+        <v>21.56782078742981</v>
+      </c>
+      <c r="I113">
+        <v>22.2871208190918</v>
+      </c>
+      <c r="J113">
+        <v>26.01803183555603</v>
+      </c>
+      <c r="K113">
+        <v>25.56678676605225</v>
+      </c>
+      <c r="L113">
+        <v>23.110136747360229</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B114" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C114">
+        <v>14.132349491119379</v>
+      </c>
+      <c r="D114">
+        <v>14.15819692611694</v>
+      </c>
+      <c r="E114">
+        <v>13.36698317527771</v>
+      </c>
+      <c r="F114">
+        <v>13.240710020065309</v>
+      </c>
+      <c r="G114">
+        <v>13.582130193710331</v>
+      </c>
+      <c r="H114">
+        <v>13.61058378219604</v>
+      </c>
+      <c r="I114">
+        <v>13.810782432556151</v>
+      </c>
+      <c r="J114">
+        <v>16.00117135047913</v>
+      </c>
+      <c r="K114">
+        <v>15.57061147689819</v>
+      </c>
+      <c r="L114">
+        <v>14.548947334289551</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>24</v>
       </c>
@@ -2929,8 +3884,23 @@
       <c r="D116">
         <v>6693033</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E116">
+        <v>6698793</v>
+      </c>
+      <c r="F116">
+        <v>6698793</v>
+      </c>
+      <c r="G116">
+        <v>6698793</v>
+      </c>
+      <c r="H116">
+        <v>6698793</v>
+      </c>
+      <c r="I116">
+        <v>6698793</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B117" s="1" t="s">
         <v>2</v>
       </c>
@@ -2940,8 +3910,23 @@
       <c r="D117">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E117">
+        <v>0</v>
+      </c>
+      <c r="F117">
+        <v>0</v>
+      </c>
+      <c r="G117">
+        <v>0</v>
+      </c>
+      <c r="H117">
+        <v>0</v>
+      </c>
+      <c r="I117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B118" s="1" t="s">
         <v>3</v>
       </c>
@@ -2951,8 +3936,23 @@
       <c r="D118">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E118">
+        <v>0</v>
+      </c>
+      <c r="F118">
+        <v>0</v>
+      </c>
+      <c r="G118">
+        <v>0</v>
+      </c>
+      <c r="H118">
+        <v>0</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B119" s="1" t="s">
         <v>4</v>
       </c>
@@ -2962,8 +3962,23 @@
       <c r="D119">
         <v>1415.800424098969</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E119">
+        <v>767.89470434188843</v>
+      </c>
+      <c r="F119">
+        <v>729.34146904945374</v>
+      </c>
+      <c r="G119">
+        <v>797.2933931350708</v>
+      </c>
+      <c r="H119">
+        <v>803.74253702163696</v>
+      </c>
+      <c r="I119">
+        <v>805.50390481948853</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B120" s="1" t="s">
         <v>5</v>
       </c>
@@ -2972,6 +3987,21 @@
       </c>
       <c r="D120">
         <v>491.00624656677252</v>
+      </c>
+      <c r="E120">
+        <v>479.22885966300959</v>
+      </c>
+      <c r="F120">
+        <v>456.81937623023993</v>
+      </c>
+      <c r="G120">
+        <v>499.88654136657709</v>
+      </c>
+      <c r="H120">
+        <v>502.12730026245117</v>
+      </c>
+      <c r="I120">
+        <v>505.09023356437677</v>
       </c>
     </row>
   </sheetData>
